--- a/medicine/Hématologie/Leucémie_aiguë/Leucémie_aiguë.xlsx
+++ b/medicine/Hématologie/Leucémie_aiguë/Leucémie_aiguë.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Leuc%C3%A9mie_aigu%C3%AB</t>
+          <t>Leucémie_aiguë</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La leucémie aiguë est un stade de la maladie de la leucémie, cancer du sang.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Leuc%C3%A9mie_aigu%C3%AB</t>
+          <t>Leucémie_aiguë</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Épidémiologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La fréquence des leucémies aiguës est faible (environ 1/100 000 habitants). Elle est cependant la plus fréquente des leucémies et sa fréquence est liée à l'âge. Elle est la première cause de décès liés aux cancers chez l'enfant.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Leuc%C3%A9mie_aigu%C3%AB</t>
+          <t>Leucémie_aiguë</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Mécanisme physiopathologique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Il existe deux mécanismes physiopathologiques qui interviennent dans les symptômes :
 prolifération de cellules malignes, responsable d'un syndrome tumoral
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Leuc%C3%A9mie_aigu%C3%AB</t>
+          <t>Leucémie_aiguë</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Symptômes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils comportent des signes d'insuffisance sanguine : pâleur, syndrome infectieux, syndrome hémorragique classiquement cutanéo-muqueux. 
 Les signes de prolifération sont des douleurs osseuses et ostéo-articulaires, des adénopathies, une splénomégalie, rarement une hypertrophie des autres organes.
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Leuc%C3%A9mie_aigu%C3%AB</t>
+          <t>Leucémie_aiguë</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,7 +624,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hémogramme montre de manière non spécifique une anémie normocytaire, macrocytose, arégénérative, une thrombopénie.
 Le nombre de leucocytes est augmentées avec présence de cellules blastiques signant le diagnostic
@@ -624,7 +644,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Leuc%C3%A9mie_aigu%C3%AB</t>
+          <t>Leucémie_aiguë</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -642,7 +662,9 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le traitement des symptômes comportent des transfusions sanguines en cas d'anémie mal tolérée, la mise sous antibiotiques en cas d'infection.
 La prise en charge doit être faite en milieu spécialisé permettant de commencer une chimiothérapie, dite d'induction, adaptée au type cytologique. Elle est suivie d'une chimiothérapie dite de consolidation. La prévention d'une localisation méningée se fait par chimiothérapie et radiothérapie.
